--- a/biology/Zoologie/Amphiesma_stolatum/Amphiesma_stolatum.xlsx
+++ b/biology/Zoologie/Amphiesma_stolatum/Amphiesma_stolatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiesma stolatum, unique représentant du genre Amphiesma, est une espèce de serpents de la famille des Natricidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiesma stolatum, unique représentant du genre Amphiesma, est une espèce de serpents de la famille des Natricidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Pakistan ;
 en Inde ;
 au Népal ;
@@ -552,7 +566,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent atteint 40 à 50 cm avec un maximum de 90 cm, les femelles étant nettement plus longues que les mâles. La queue atteint environ le quart de la longueur totale. Ce serpent est en général brun-vert ou gris sur tout le corps. Le dessous est blanc-crème avec de petits points noirs.
 </t>
@@ -583,9 +599,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiesma stolatum est diurne et ovipare[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiesma stolatum est diurne et ovipare.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est devenu mono-typique à la suite d'une révision faite par Guo, Zhu, Liu, Zhang, Li, Huang et Pyron en  2014[2]. Les anciennes espèces de ce genre ont été déplacées dans les genres Hebius et Herpetoreas[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est devenu mono-typique à la suite d'une révision faite par Guo, Zhu, Liu, Zhang, Li, Huang et Pyron en  2014. Les anciennes espèces de ce genre ont été déplacées dans les genres Hebius et Herpetoreas.
 </t>
         </is>
       </c>
